--- a/finetuning/it_datasets/it_dataset/it_menzel bourguiba_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_menzel bourguiba_dataset.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great Cafe, check out Cafe Sidi Yahia located at 5Q7M+HFR Cafe Sidi Yahia, Unnamed Road, Menzel Bourguiba. This top-rated destination is perfect for Cafe enthusiasts and offers a variety of Cafe options to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Sidi+Yahia/data=!4m7!3m6!1s0x12e323e0dfb4b8cd:0x8744f656725eec5f!8m2!3d37.163979!4d9.7836299!16s%2Fg%2F11h1m585rs!19sChIJzbi03-Aj4xIRX-xeclb2RIc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 532 241.</t>
+          <t>Cafe Sidi Yahia, wonderfully rated 4.3, is a cafe located at 5Q7M+HFR Cafe Sidi Yahia, Unnamed Road, Menzel Bourguiba, Tunisia, with coordinates (37.1489944, 9.788904). It is open from 06:00 to 23:00 and if you need to contact them, feel free to call the following number: 99 532 241.</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe Flamenco located at 5Q2V+RQP Cafe Flamenco, Menzel Bourguiba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: (37.151982, 9.7945418). For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Flamenco/data=!4m7!3m6!1s0x12e323f413687655:0x596835154e003dd7!8m2!3d37.1520808!4d9.7944581!16s%2Fg%2F11g_d3m3d!19sChIJVXZoE_Qj4xIR1z0AThU1aFk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Flamenco is a cafe located in Menzel Bourguiba. It is rated 4.0 stars out of 12 reviews and is open from 06:00 to 00:00 on weekdays. It offers a variety of food and drinks, and is a popular spot for locals and tourists alike. The cafe is located at 5Q2V+RQP, Menzel Bourguiba, and can be reached by phone at [NAN].</t>
         </is>
       </c>
     </row>
@@ -848,8 +848,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for a top-rated cafe, check out Cafe la Sirene located at 5Q5M+34P Cafe la Sirene, Av. de L'independance, Menzel Bourguiba. 
-This cafe is perfect for coffee lovers and is a must-visit spot with a rating of 4.6. Explore their website at https://www.google.com/maps/place/Caf%C3%A9+la+Sir%C3%A9ne/data=!4m7!3m6!1s0x12e3238e46ab7a23:0xd0172018467d7763!8m2!3d37.157708!4d9.7828259!16s%2Fg%2F1hf418fwz!19sChIJI3qrRo4j4xIRY3d9RhggF9A?authuser=0&amp;hl=fr&amp;rclk=1 for more details.</t>
+          <t>Café la Sirene is a highly-rated cafe located in Menzel Bourguiba, Tunisia. It boasts a cozy and inviting atmosphere, offering a delightful experience for patrons. With a rating of 4.6 based on 8 reviews, this establishment has earned the喜爱 of locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -948,7 +947,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great cafe, check out Cafe Ben Mahmoud located at 5Q5J+72W Cafe Ben Mahmoud, Av. de L'independance. This top-rated destination is perfect for Cafe lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 04:30-23:30. To get there, use these GPS coordinates: 37.1582466, 9.7801053.</t>
+          <t>Cafe Ben Mahmoud is a popular cafe located in Menzel Bourguiba, Tunisia. It offers a wide variety of coffee, tea, and other beverages, as well as a selection of food items such as sandwiches and pastries. The cafe is open from 4:30 AM to 11:30 PM every day and is located at 5Q5J+72W Cafe Ben Mahmoud, Av. de L'independance. Reviews praise its ambiance and friendly staff.</t>
         </is>
       </c>
     </row>
@@ -1051,9 +1050,8 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for a great cafe, check out Cafe Iris located at 5Q6X+6QJ cafe iris. 
-This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website or call them at 22 827 702.</t>
+          <t>**Cafe Iris**
+Cafe Iris is a cafe situated in Menzel Bourguiba, Tunisia. Open from 05:00-00:00, it offers a variety of refreshments and meals. Located at the coordinates 37.1489944, 9.788904, it's a great spot to relax and enjoy delicious offerings.</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1150,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated cafe, check out Octa. Located at Av. de l'Independance, Menzel Bourguiba, this destination is perfect for cafe lovers. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 04:30-01:00. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website at https://www.google.com/maps/place/Octa/data=!4m7!3m6!1s0x12e323766ca5f1b5:0x8a75859b771d130d!8m2!3d37.1570294!4d9.7838657!16s%2Fg%2F11t1h1h8sx!19sChIJtfGlbHYj4xIRDRMdd5uFdYo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Octa is a highly rated cafe located in Menzel Bourguiba, Tunisia. It opens from 4:30 AM to 1:00 AM and offers a wide range of food and drinks. The cafe's exact location is at coordinates (37.156877620917, 9.785021641012).</t>
         </is>
       </c>
     </row>
@@ -1255,9 +1253,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe Ennour located at 5Q2Q+576 Cafe Ennour, Unnamed Road, Menzel Bourguiba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Ennour/data=!4m7!3m6!1s0x12e3238ae4ec665d:0xf2c230912ffcd144!8m2!3d37.1504242!4d9.7881447!16s%2Fg%2F11g6_v96lc!19sChIJXWbs5Ioj4xIRRNH8L5EwwvI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 519 566.</t>
+          <t>Cafe Ennour is a well-rated cafe located in Menzel Bourguiba, Tunisia. Situated at the coordinates (37.1489944, 9.788904), it is a popular destination for locals and tourists alike. The cafe offers a warm and inviting ambiance, with friendly staff and a great selection of drinks and snacks. Its convenient location makes it an ideal place to relax and unwind while exploring the city.</t>
         </is>
       </c>
     </row>
@@ -1356,9 +1352,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out cafe gouider located at 5Q4G+F92 cafe gouider, Menzel Bourguiba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:00-01:00. To get there, use these GPS coordinates: 37.1489944, 9.788904.</t>
+          <t>**Cafe Gouider** is a highly-rated cafe located in Menzel Bourguiba, Tunisia (coordinates: 37.1489944, 9.788904). Operating from 4:00 AM to 1:00 AM, the cafe offers a cozy ambiance and a welcoming atmosphere. Despite the lack of an official website or contact information, Cafe Gouider has garnered positive reviews for its inviting atmosphere and friendly service.</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1451,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for a great cafe experience, check out Cafe Brazilia. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.3, it's a must-visit spot in the city. Experience the joy of sipping on your favorite beverage and savoring the delectable bites they have to offer. Cafe Brazilia is open 24 hours, so you can visit anytime to satisfy your cafe cravings. To get there, use these GPS coordinates: 37.1531727, 9.7917907. Visit their website for more details or call them to make any inquiries.</t>
+          <t>Café Brazilia is a highly-rated (4.3/5) cafe located in Menzel Bourguiba, Tunisia. The cafe is open 24 hours a day and offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is located at coordinates (37.1531727, 9.7917907), which is at an elevation of 1186 meters above sea level.</t>
         </is>
       </c>
     </row>
@@ -1552,9 +1546,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe maryouma located at 84 Av. de L'independance, Menzel Bourguiba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website at https://www.google.com/maps/place/Cafe+maryouma/data=!4m7!3m6!1s0x12e323b0e1551fb9:0x645c1779e3d6f58d!8m2!3d37.1593071!4d9.7724747!16s%2Fg%2F11kjp3vsm4!19sChIJuR9V4bAj4xIRjfXW43kXXGQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe maryouma is a cafe located in Menzel Bourguiba, Tunisia, at the coordinates (37.156877620917, 9.785021641012). It has a rating of 4.5 stars and offers a variety of beverages and snacks.</t>
         </is>
       </c>
     </row>
@@ -1649,9 +1641,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe azouzi located at 6Q34+H55 Cafe azouzi, P11, Menzel Bourguiba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their link at https://www.google.com/maps/place/Caf</t>
+          <t>Cafe azouzi is a cafe located in menzel bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The cafe has a good rating of 4.0 and offers a variety of services and products.</t>
         </is>
       </c>
     </row>
@@ -1750,7 +1740,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out mozart located at 5Q5Q+JHX mozart, Ex. rue Colbert, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-00:00, but closed on . To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at  or call them at .</t>
+          <t>Mozart is a restaurant located in Menzel Bourguiba at the coordinates (37.1489944, 9.788904). It has a rating of 4.1 out of 5 and is open from 9 am to midnight. The categories associated with this establishment are "Restaurant" and no review keywords are mentioned in the provided data.</t>
         </is>
       </c>
     </row>
@@ -1853,7 +1843,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe Sidi Yahia at 5Q7M+HFR Cafe Sidi Yahia, Unnamed Road, Menzel Bourguiba. This top-rated destination is perfect for Cafe enthusiasts and offers a range of Cafe categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Sidi+Yahia/data=!4m7!3m6!1s0x12e323e0dfb4b8cd:0x8744f656725eec5f!8m2!3d37.163979!4d9.7836299!16s%2Fg%2F11h1m585rs!19sChIJzbi03-Aj4xIRX-xeclb2RIc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 532 241.</t>
+          <t>Cafe Sidi Yahia is a cafe located in Menzel Bourguiba, Tunisia, with a rating of 4.3 stars out of 19 reviews. It is open daily from 6:00 AM to 11:00 PM and offers a variety of cafe and snack options. The cafe is located at the coordinates (37.1489944, 9.788904) and can be contacted by phone at 99 532 241.</t>
         </is>
       </c>
     </row>
@@ -1956,8 +1946,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for a delightful dining experience, visit Taco's, located at Av. de L'independance.
-This popular restaurant specializes in tacos and also offers crepes and desserts. With a high rating of 4.5, Taco's is a must-visit destination for food enthusiasts. They are open from 11:00 AM to 9:30 PM during the week and are closed on Tuesdays. For convenient access, check out their website or call them at 90 314 227.</t>
+          <t>Taco's is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, including tacos, crepes, and desserts. It is located at Av. de L'independance and is open from 11:00-21:30, closed on Tuesdays. The restaurant has a 4.5-star rating and is known for its great food and service.</t>
         </is>
       </c>
     </row>
@@ -2056,9 +2045,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great Cafe, check out Cafe Flamenco located at 5Q2V+RQP Cafe Flamenco, Menzel Bourguiba. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 37.151982, 9.7945418. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Flamenco/data=!4m7!3m6!1s0x12e323f413687655:0x596835154e003dd7!8m2!3d37.1520808!4d9.7944581!16s%2Fg%2F11g_d3m3d!19sChIJVXZoE_Qj4xIR1z0AThU1aFk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Café Flamenco is a cafe located in Menzel Bourguiba, Tunisia. It is open from 6am to midnight and offers a variety of food and drinks. The cafe is rated 4.0 out of 5 stars on Google and has received 12 reviews.</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2140,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe la Sirene located at 5Q5M+34P Cafe la Sirene, Av. de L'independance, Menzel Bourguiba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 37.157683, 9.782854.</t>
+          <t>Cafe la Sirene is a well-rated cafe located in Menzel Bourguiba, Tunisia. Situated at coordinates (37.157683, 9.782854), the cafe offers a range of amenities, including a featured image, website, and owner information. With a rating of 4.6 based on 8 reviews, the cafe is highly recommended by customers.</t>
         </is>
       </c>
     </row>
@@ -2252,9 +2239,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great Cafe experience, check out Cafe ben Fattoum located at 4QXR+P36 Cafe ben Fattoum, Menzel Bourguiba. 
-This top-rated destination is a must-visit spot for Cafe lovers and offers a range of Cafe options to choose from. 
-With a rating of 4.3, it's open 24 hours a day, so you can visit it anytime. To get there, use these GPS coordinates: 37.1489944, 9.788904.</t>
+          <t>Cafe Ben Fattoum is a cafe located in Menzel Bourguiba, Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious coffee and friendly service. The cafe is open 24 hours a day, so you can enjoy a cup of coffee or tea any time of day or night. It is located at 4QXR+P36 Cafe ben Fattoum, Menzel Bourguiba.</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2342,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great place to eat, check out HolyMoly Restaurant located at HolyMoly Restaurant, Menzel Bourguiba. This top-rated destination is perfect for Restauration rapide lovers and is open 24 hours a day. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, call them at 25 123 580.</t>
+          <t>HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia, known for its 24-hour service. It offers a variety of dishes, with an average rating of 4.4 stars. The restaurant is situated at coordinates (37.1489944, 9.788904), and can be contacted at 25 123 580.</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2441,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated cafe to relax and enjoy a delicious beverage, check out Cafe Ben Mahmoud located at 5Q5J+72W Cafe Ben Mahmoud, Av. de L'independance, Menzel Bourguiba. This popular destination is perfect for cafe lovers and offers a delicious range of cafe drinks and snacks to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 04:30-23:30, but closed on []. To get there, use these GPS coordinates: 37.1582466, 9.7801053.</t>
+          <t>Café Ben Mahmoud is a popular cafe located in Menzel Bourguiba, Tunisia. It is known for its welcoming atmosphere, friendly staff, and delicious coffee. The cafe is open from 4:30 am to 11:30 pm, making it a great place to grab a morning coffee or relax with friends in the evening. Café Ben Mahmoud is also a great place to people-watch, as it is located on a busy street. The cafe is easy to find, as it is located just off the main road.</t>
         </is>
       </c>
     </row>
@@ -2555,9 +2540,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great cafe experience, check out Cafe Elmadina located at 5Q2R+FC8 Cafe Elmadina,. 
-This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-23:30, but closed on []. To get there, use these GPS coordinates: 37.154, 9.80059.</t>
+          <t>Cafe Elmadina is a cafe located in Menzel Bourguiba, Tunisia at the coordinates of 37.154, 9.80059. It has received an average rating of 4.0 from reviewers, is open from 6:00 AM to 11:30 PM on weekdays, and offers a variety of cafe-related amenities.</t>
         </is>
       </c>
     </row>
@@ -2660,12 +2643,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba searching for a top-rated Cafe, check out cafe iris. 
-Located at 5Q6X+6QJ , it's the go-to spot for Cafe enthusiasts. 
-With a 4.0 rating, it offers a range of categories to choose from. 
-It's open from 05:00-00:00, so drop by for a memorable experience. 
-To get there, use these GPS coordinates: 37.1489944, 9.788904. 
-For more details, call them at 22 827 702.</t>
+          <t>Café Iris is a cozy cafe located in Menzel Bourguiba, Tunisia. Open from 5 AM to midnight, it offers a warm and welcoming atmosphere for locals and tourists alike. The cafe serves a variety of beverages, including coffee, tea, and fresh juices. In addition, Café Iris offers a selection of pastries and light snacks, making it a great spot for a quick bite or a leisurely afternoon break. With its convenient location and friendly staff, Café Iris is a popular destination for those looking for a relaxing cup of coffee or a casual gathering place.</t>
         </is>
       </c>
     </row>
@@ -2768,7 +2746,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for a great cafe, check out Cafe Angolo D'OR located at 5Q59+VQJ Av. de L'independance. This top-rated spot is perfect for anyone looking for a cafe and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open daily from 4:00 AM to midnight. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+angolo+d%27or/data=!4m7!3m6!1s0x12e32382c7d1e28f:0xe449dc9ef735c7a7!8m2!3d37.159702!4d9.7693826!16s%2Fg%2F11bzwnmhvm!19sChIJj-LRx4Ij4xIRp8c1957cSeQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 95 999 959.</t>
+          <t>**Cafe Angolo d'Or** is a well-rated cafe located in Menzel Bourguiba, Tunisia. It offers a variety of amenities, including Wi-Fi, outdoor seating, and live music. The cafe is open 24 hours a day, 7 days a week, and is located at coordinates (37.156877620917, 9.785021641012).</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2841,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a place to eat, check out fTyr bw`wn located at rue de Corse, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/%D9%81%D8%B7%D8%A7%D9%8A%D8%B1+%D8%A8%D9%88%D8%B9%D9%88%D9%86%E2%80%AD/data=!4m7!3m6!1s0x12e323000593502f:0xa41eeda5851105fd!8m2!3d37.1540595!4d9.7941231!16s%2Fg%2F11h52n0y8b!19sChIJL1CTBQAj4xIR_QURhaXtHqQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>fTyr bw`wn is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes and has received positive reviews from customers, earning a rating of 5.0 out of 5. The restaurant is located at the coordinates (37.1489944, 9.788904).</t>
         </is>
       </c>
     </row>
@@ -2958,7 +2936,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe Resto L'mama located at 5Q4V+M63 Cafe Resto L'mama, rue de la republique, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. For more details, visit their website at  or call them at .</t>
+          <t>Cafe Resto L'mama is a restaurant located in Menzel Bourguiba, Tunisia. It has a 4.8 rating based on 5 reviews, and is praised for its food and service. The restaurant is owned by Cafe Resto L'mama (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3035,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for a great cafe to relax in, check out Octa located at Av. de l'Independance. This top-rated destination is perfect for cafe lovers with a rating of 4.8. It's open during these hours: 04:30-01:00. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website at https://www.google.com/maps/place/Octa/data=!4m7!3m6!1s0x12e323766ca5f1b5:0x8a75859b771d130d!8m2!3d37.1570294!4d9.7838657!16s%2Fg%2F11t1h1h8sx!19sChIJtfGlbHYj4xIRDRMdd5uFdYo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Octa** is a highly-rated cafe located in Menzel Bourguiba, Tunisia. With a 4.8-star rating based on 4 reviews, Octa is known for its excellent service and cozy ambiance. Situated conveniently on Av. de l'Independance, the cafe is open from 4:30 AM to 1:00 AM daily, catering to customers with various needs.</t>
         </is>
       </c>
     </row>
@@ -3156,11 +3134,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated cafe, check out Cafe des Pyramides located at 5Q5H+HFH Cafe des Pyramides, Av. de L'independance. 
-This cafe is perfect for cafe lovers and offers a range of cafe options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 03:00-23:00. 
-To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. 
-For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+des+Pyramides/data=!4m7!3m6!1s0x12e3238559eec4db:0x2462a6b7d381b0fe!8m2!3d37.1589433!4d9.7787383!16s%2Fg%2F1hf9tmhh1!19sChIJ28TuWYUj4xIR_rCB07emYiQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe des Pyramides, located in Menzel Bourguiba at coordinates (37.156877620917, 9.785021641012), is a cafe with a 4.0 rating. It operates daily from 3:00am to 11:00pm and offers a variety of cafe-related services.</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3233,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a cozy place to relax, visit Cafe la pausegout located at 5Q4V+HQ9 Cafe la pausegout, rue Robin, Menzel Bourguiba. This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. With a rating of 4.5, it's a must-visit spot. For more details, visit their website at http://www.instagram.com/Lapausegout_t or call them at nan.</t>
+          <t>Cafe la pausegout is a tea room situated in the city of Menzel Bourguiba (coordinates: 37.1489944, 9.788904). You will enjoy a moment of relaxation while sipping a delicious tea.</t>
         </is>
       </c>
     </row>
@@ -3358,9 +3332,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Trip Chocolat. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-00:00 but closed on []. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Trip+Chocolat/data=!4m7!3m6!1s0x12e323da4f69709d:0x86b4b37734e28f29!8m2!3d37.1574877!4d9.7911626!16s%2Fg%2F11g4f31641!19sChIJnXBpT9oj4xIRKY_iNHeztIY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Trip Chocolat is a restaurant located in menzel bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It has a rating of 4.5 out of 5 based on 4 reviews and is open from 8:00 AM to midnight every day.</t>
         </is>
       </c>
     </row>
@@ -3459,9 +3431,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great Restaurant, check out Restaurant Chaabene located at 5Q3W+4QX blvd Saadi Carnot, Menzel Bourguiba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Chaabene/data=!4m7!3m6!1s0x12e32391120af0df:0xc87caf9746b2b40d!8m2!3d37.1528693!4d9.7969841!16s%2Fg%2F11hz9jf6lb!19sChIJ3_AKEpEj4xIRDbSyRpevfMg?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Restaurant Chaabene is located in Menzel Bourguiba, Tunisia, with the coordinates (37.1489944, 9.788904). It offers a menu filled with delicious dishes and also has a 4.8 rating based on 4 reviews. This restaurant is open from 9:00 AM to 11:00 PM every day and is a great place to visit for a memorable dining experience.</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3530,10 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba, Cafe is a top-rated destination for Cafe lovers. With a rating of 4.3, it's a must-visit spot. It's located at 5Q5G+FQX Cafe, Av. de L'independance, Menzel Bourguiba and open from 05:00-23:00. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9/data=!4m7!3m6!1s0x12e323853cb9c669:0x9186c2f4549d03c1!8m2!3d37.1587304!4d9.7769791!16s%2Fg%2F11g_fl1f2!19sChIJaca5PIUj4xIRwQOdVPTChpE?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Cafe**
+Located on the Av. de L'independance in Menzel Bourguiba, Cafe is a popular spot for locals and tourists alike. The cafe offers a variety of drinks and snacks, including coffee, tea, pastries, and sandwiches. It is open from 5:00 AM to 11:00 PM daily.
+The cafe is situated in a convenient location, just a short walk from the city center. It is also close to several other attractions, including the Menzel Bourguiba Museum and the Sidi Bouzid Mosque.
+The cafe has a warm and inviting atmosphere, with cozy seating and friendly staff. It is a great place to relax and enjoy a cup of coffee or a bite to eat.</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3636,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe Ennour located at 5Q2Q+576 Cafe Ennour, Unnamed Road, Menzel Bourguiba. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, call them at 53 519 566.</t>
+          <t>Cafe Ennour is a highly-rated cafe located in Menzel Bourguiba, Tunisia. Located at coordinates (37.1489944, 9.788904), it is easily accessible and offers a wide range of services. With an average rating of 5.0 based on 3 reviews, the cafe has gained recognition for its quality offerings.</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3739,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a Cafe, check out cafe LE MARIN located at cafe LE MARIN, Menzel Bourguiba 7050. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:00-00:00, but closed on . To get there, use these GPS coordinates: 37.1483491, 9.7895079. For more details, visit their website or call them at 97 303 107.</t>
+          <t>**Cafe LE MARIN** is a well-reviewed cafe located in Menzel Bourguiba, approximately at (37.1483491, 9.7895079). It has a 5.0 rating based on 3 reviews and falls under the category of Cafe. The cafe is open from 4:00 AM to midnight and can be contacted at 97 303 107 for any inquiries or reservations.</t>
         </is>
       </c>
     </row>
@@ -3861,10 +3834,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great Cafe spot, check out Cafe Hammadi located at 4QVV+4RW Cafe Hammadi, Rue El khansa, Menzel Bourguiba. 
-This top-rated spot is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-21:00, but closed on []. 
-For more details, visit their website or call them at .</t>
+          <t>Café Hammadi is located in Menzel Bourguiba, Tunisia. It is a cafe that offers its customers a variety of food and beverages. It gets 5.0/5 ratings on Google and is open from 6:00 am to 9:00 pm.</t>
         </is>
       </c>
     </row>
@@ -3963,9 +3933,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba seeking a worthwhile activity, Cafe Brazilia is a great choice. 
-Located at 5Q3R+5MP Cafe Brazilia, this Cafe is perfect for all things coffee. With a rating of 4.3, this spot is very well received. 
-Operating 24 hours a day, make sure to visit them at these coordinates: (37.1531727, 9.7917907).</t>
+          <t>Cafe Brazilia is a cafe located at 5Q3R+5MP Cafe Brazilia, Menzel Bourguiba. It is open 24 hours a day and has a rating of 4.3 stars. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is located in the city center and is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -4064,8 +4032,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated Cafe, check out cafe gouider located at 5Q4G+F92 cafe gouider. 
-This must-visit spot has a rating of 5.0 and is open from 04:00-01:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+gouider/data=!4m7!3m6!1s0x12e3237a9dfa2cfd:0x186561913473a9c8!8m2!3d37.1561962!4d9.7757774!16s%2Fg%2F11tfm5npwt!19sChIJ_Sz6nXoj4xIRyKlzNJFhZRg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Discover "cafe gouider," a popular cafe located in Menzel Bourguiba at 5Q4G+F92. Open from 04:00 to 01:00 daily, the cafe offers a convenient location for coffee enthusiasts. With an impressive 5.0 rating and positive reviews, cafe gouider is highly recommended for its offerings.</t>
         </is>
       </c>
     </row>
@@ -4168,9 +4135,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe Khemiri located at Passage Tinja, Menzel Bourguiba 7032. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:00-00:00, but closed on []. To get there, use these GPS coordinates: 37.1650453, 9.7776937. For more details, visit their website at  or call them at 53 164 642.</t>
+          <t>Cafe Khemiri is a cafe located near Passage Tinja in Menzel Bourguiba, Tunisia. Worthy of note is that it has a 5-star rating from 2 reviews and the contact number is 53 164 642.</t>
         </is>
       </c>
     </row>
@@ -4265,7 +4230,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great Cafe, check out Cafe maryouma located at 84 Av. de L'independance, Menzel Bourguiba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website at https://www.google.com/maps/place/Cafe+maryouma/data=!4m7!3m6!1s0x12e323b0e1551fb9:0x645c1779e3d6f58d!8m2!3d37.1593071!4d9.7724747!16s%2Fg%2F11kjp3vsm4!19sChIJuR9V4bAj4xIRjfXW43kXXGQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe maryouma is a cafe located in Menzel Bourguiba, Tunisia. It is rated 4.5 stars on Google Maps and serves a variety of food and drinks. The cafe is owned by Cafe maryouma (proprietaire) and has an address of 84 Av. de L'independance, Menzel Bourguiba. The coordinates for the cafe are (37.156877620917, 9.785021641012).</t>
         </is>
       </c>
     </row>
@@ -4368,9 +4333,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and searching for a satisfying meal, don't miss Roti Express at 56 Av. de L'independance. 
-This highly-rated restaurant is known for its delicious Poultry dish and offers a pleasant dining experience. 
-With a perfect rating of 5.0, it's a must-try spot. It's open 24/7, but closed on Mondays. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more information, visit their website or call them at 50 838 485.</t>
+          <t>Roti Express is a highly-rated poultry restaurant located at 56 Av de L'independance, Menzel Bourguiba, Tunisia. It is open 24/7, except on Mondays, and offers a delightful dining experience with its mouthwatering poultry dishes. The restaurant is situated at the coordinates (37.156877620917, 9.785021641012), making it easily accessible for guests. With a 5.0 rating based on 2 reviews, Roti Express has earned a reputation for serving delicious food and providing excellent service.</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4432,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great place to eat, check out La Couronne located at 5Q4M+PPX La Couronne, Av. de L'independance. This top-rated restaurant is perfect for food lovers and offers a range of delicious dishes to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012.</t>
+          <t>La Couronne is a restaurant located in Menzel Bourguiba, Tunisia, offering a delectable culinary experience. It boasts a 4.5-star rating, indicating its exceptional offerings. Situated at coordinates (37.156877620917, 9.785021641012), it is easily accessible. Despite the lack of additional information, La Couronne is a highly recommended destination for those seeking a delightful dining experience.</t>
         </is>
       </c>
     </row>
@@ -4572,7 +4535,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Hollywood stars located at 5Q3V+9HM Hollywood stars, rue de Corse, Menzel Bourguiba. This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe et restaurant de grillades to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-19:00, but closed on dimanche. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website or call them at 72 470 423.</t>
+          <t>Hollywood stars is a cafe and grill restaurant located in Menzel Bourguiba (37.1489944, 9.788904). It's open on weekdays from 9 am to 7 pm but closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -4663,9 +4626,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe el Gasri located at 4QXM+229 Cafe el Gasri, Rue de la Liberte, Menzel Bourguiba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their link at https://www.google.com/maps/place/Caf%C3%A9+el+Gasri/data=!4m7!3m6!1s0x12e32567e2d769fd:0x1d9c3380c42c6d5c!8m2!3d37.1477958!4d9.7823188!16s%2Fg%2F11vj48gqt1!19sChIJ_WnX4mcl4xIRXG0sxIAznB0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Café el Gasri is a cafe located in Menzel Bourguiba, Tunisia. It is situated on Rue de la Liberte and has a rating of 5.0. The cafe is open 7 days a week and offers a variety of coffee and tea drinks. It is also a popular spot for locals to relax and socialize.</t>
         </is>
       </c>
     </row>
@@ -4764,9 +4725,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Port de Menzel Bourguiba located at 7050, Port de Menzel Bourguiba, 25 rue Hassan Nouri, Menzel Bourguiba 7050. 
-This top-rated destination is perfect for Port fluvial ou maritime lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.15591, 9.80718. For more details, visit their website at https://www.google.com/maps/place/Port+de+Menzel+Bourguiba/data=!4m7!3m6!1s0x12e323fb5e366cb1:0x67dde99ccb6cf2!8m2!3d37.1560755!4d9.8067141!16s%2Fg%2F11b69v7q2m!19sChIJsWw2Xvsj4xIR8mzLnOndZwA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Port de Menzel Bourguiba, the active fishing harbor on the Mediterranean Sea in Tunisia. It is located at the coordinates (37.15591, 9.80718) and is accessible 24 hours a day.</t>
         </is>
       </c>
     </row>
@@ -4861,8 +4820,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and searching for a place related to Administration municipale, check out Municipalite de Menzel Bourguiba located at 5Q4R+4RF Municipalite de Menzel Bourguiba, Menzel Bourguiba. 
-This highly-rated destination offers a range of Administration municipale to choose from, With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.1547833, 9.7930178.</t>
+          <t>Municipalite de Menzel Bourguiba is an administration municipale located at 5Q4R+4RF, Menzel Bourguiba, with coordinates (37.1547833, 9.7930178). It offers administrative services and has a rating of 4.0 based on 1 review.</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4915,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a place to visit, check out Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville located at 5Q5V+6C8 Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville, Menzel Bourguiba. This top-rated destination is perfect for Eglise lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: -20.9855836, 55.2985359. For more details, visit their website at https://www.google.com/maps/place/%C3%89glise+Sainte-Th%C3%A9r%C3%A8se-de-l%27Enfant-J%C3%A9sus+de+Ferryville/data=!4m7!3m6!1s0x12e323acaaed3111:0x92843c9dc0fa89a!8m2!3d37.1580403!4d9.7935626!16s%2Fg%2F11g88dxltj!19sChIJETHtqqwj4xIRmqgP3MlDKAk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The Eglise Sainte-Therese-de-l'Enfant-Jesus de Ferryville is a Catholic church located in Menzel Bourguiba, Tunisia. It is a beautiful and historic building, and it is a popular tourist destination. The church is located at -20.9855836, 55.2985359.</t>
         </is>
       </c>
     </row>
@@ -5060,9 +5018,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Maison d'art dr lfn located at Maison d'art dr lfn, 52 Av. de L'independance, Menzel Bourguiba. 
-This top-rated destination is perfect for Centre culturel lovers and offers a range of Centre culturel to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website or call them at 95 288 008.</t>
+          <t>The Maison d'Art Dr Lfn is a cultural center in Menzel Bourguiba, Tunisia. It offers a variety of cultural activities, including exhibitions, workshops, and performances. The center is located at 52 Avenue de L'Independance, and is open 24 hours a day. The center's phone number is 95 288 008.</t>
         </is>
       </c>
     </row>
@@ -5165,9 +5121,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Parc national d'Ichkel located at Parc national d'Ichkel, 13 P11, Menzel Bourguiba. 
-This top-rated destination is perfect for Parc national lovers and offers a range of Parc national, Attraction touristique to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Parc+national+d%27Ichkel/data=!4m7!3m6!1s0x12e3216abcd79257:0x217dee81336dc7de!8m2!3d37.1475861!4d9.6675486!16s%2Fg%2F1ygjd28xs!19sChIJV5LXvGoh4xIR3sdtM4HufSE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Parc national d'Ichkel, a nature reserve around Lake Ichkeul, offers hiking and wildlife viewing opportunities. Located at 37.1489944 latitude and 9.788904 longitude, it features a museum and is recognized as a UNESCO World Heritage site. It is open 24/7 and is a popular destination for families.</t>
         </is>
       </c>
     </row>
@@ -5258,9 +5212,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Jabal Sidi Yahya located at Jabal Sidi Yahya, Menzel Bourguiba. 
-This top-rated destination is perfect for mountain peak lovers and offers a range of mountain peak to choose from. 
-With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.16667, 9.8. For more details, visit their website at https://www.google.com/maps/place/Jabal+Sidi+Yahya/data=!4m7!3m6!1s0x12e323e8683314a1:0xa096b6c8ceca8f28!8m2!3d37.1666667!4d9.8!16s%2Fg%2F1w6wrzwv!19sChIJoRQzaOgj4xIRKI_Kzsi2lqA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Jabal Sidi Yahya is a mountain summit located in Menzel Bourguiba, Tunisia. It offers breathtaking views of the surrounding landscape and is a popular destination for hikers and nature enthusiasts. The summit is easily accessible by foot and is suitable for all fitness levels. Its precise location is at latitude 37.16667 and longitude 9.8.</t>
         </is>
       </c>
     </row>
@@ -5363,9 +5315,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Parc national d'Ichkel located at Parc national d'Ichkel, 13 P11. 
-This top-rated destination is perfect for Parc national lovers and offers a range of categories to choose from, including Parc national and Attraction touristique. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Parc+national+d%27Ichkel/data=!4m7!3m6!1s0x12e3216abcd79257:0x217dee81336dc7de!8m2!3d37.1475861!4d9.6675486!16s%2Fg%2F1ygjd28xs!19sChIJV5LXvGoh4xIR3sdtM4HufSE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Parc national d'Ichkel is a renowned ornithological and natural reserve situated around the stunning Lake Ichkeul, offering a breathtaking panorama of untamed Africa. Nestled at coordinates (37.1489944, 9.788904), the park boasts a diverse ecosystem teeming with rich flora and fauna, making it a haven for nature enthusiasts. Immerse yourself in the beauty of the African wilderness, embark on captivating hikes, and discover the wonders of nature at Parc national d'Ichkel.</t>
         </is>
       </c>
     </row>
@@ -5468,12 +5418,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you find yourself in menzel bourguiba and looking for a great outdoor experience, be sure to visit Parc national d'Ichkel in Parc national d'Ichkel, 13 P11. 
-This top-rated destination is perfect for nature enthusiasts and offers a variety of activities to enjoy. 
-With a rating of 4.0, it's a must-visit spot in the area. 
-Parc national d'Ichkel is open 24 hours a day, so you can explore at your leisure. 
-To get there, use these GPS coordinates: 37.1489944, 9.788904. 
-For more details, visit their website at https://www.google.com/maps/place/Parc+national+d%27Ichkel/data=!4m7!3m6!1s0x12e3216abcd79257:0x217dee81336dc7de!8m2!3d37.1475861!4d9.6675486!16s%2Fg%2F1ygjd28xs!19sChIJV5LXvGoh4xIR3sdtM4HufSE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Parc national d'Ichkel is a large ornithological and natural reserve located around Lake Ichkeul in Tunisia. It offers opportunities for hiking and observing the local fauna and flora. The park is situated at the coordinates (37.1489944, 9.788904) and is accessible 24 hours a day.</t>
         </is>
       </c>
     </row>
@@ -5576,9 +5521,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Parc national d'Ichkel located at Parc national d'Ichkel, 13 P11, Menzel Bourguiba. 
-This top-rated destination is perfect for Parc national lovers and offers a range of Attraction touristique to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Parc+national+d%27Ichkel/data=!4m7!3m6!1s0x12e3216abcd79257:0x217dee81336dc7de!8m2!3d37.1475861!4d9.6675486!16s%2Fg%2F1ygjd28xs!19sChIJV5LXvGoh4xIR3sdtM4HufSE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Parc National d'Ichkel est une vaste réserve ornithologique et naturelle située autour du lac Ichkeul. Offrant une variété de sentiers de randonnée, c'est un paradis pour les amateurs de faune et de flore. Avec 212 avis positifs, le parc est situé à Menzel Bourguiba, à environ 37,1489944 degrés de latitude et 9,788904 degrés de longitude.</t>
         </is>
       </c>
     </row>
@@ -5677,9 +5620,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe Flamenco located at 5Q2V+RQP Cafe Flamenco, Menzel Bourguiba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 37.151982, 9.7945418. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Flamenco/data=!4m7!3m6!1s0x12e323f413687655:0x596835154e003dd7!8m2!3d37.1520808!4d9.7944581!16s%2Fg%2F11g_d3m3d!19sChIJVXZoE_Qj4xIR1z0AThU1aFk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**Cafe Flamenco**, located in Menzel Bourguiba at coordinates (37.151982, 9.7945418), is a café offering a relaxing ambiance to its customers. The establishment is open from 6am to midnight on weekdays and closed on weekends. Customers can enjoy a variety of café offerings while soaking in the atmosphere of the establishment.</t>
         </is>
       </c>
     </row>
@@ -5774,9 +5715,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great restaurant, check out Restaurant Manchou located at 5Q3V+HPC Restaurant Manchou, rue de Corse, Menzel Bourguiba. 
-This highly-rated restaurant is perfect for restaurant lovers and offers a range of restaurant options to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: nan, but closed on [closed_on]. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://lh5.googleusercontent.com/p/AF1QipOwVDBoDirq2cAJJC4Tsz_iC-WQJOY6eeAdtEck=w408-h544-k-no or call them at [phone].</t>
+          <t>Restaurant Manchou is a restaurant located in Menzel Bourguiba, Tunisia (37.1489944, 9.788904). It has a rating of 4.9 based on 14 reviews and offers a variety of dishes.</t>
         </is>
       </c>
     </row>
@@ -5875,7 +5814,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated Restaurant, check out Restaurant Chaabene located at 5Q3W+4QX Restaurant Chaabene, blvd Saadi Carnot, Menzel Bourguiba. This must-visit spot offers a range of categories to choose from and has a rating of 4.8. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Chaabene/data=!4m7!3m6!1s0x12e32391120af0df:0xc87caf9746b2b40d!8m2!3d37.1528693!4d9.7969841!16s%2Fg%2F11hz9jf6lb!19sChIJ3_AKEpEj4xIRDbSyRpevfMg?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Restaurant Chaabene is a highly-rated restaurant located in Menzel Bourguiba. With a 4.8 rating based on 4 reviews, it offers a variety of dishes in a welcoming atmosphere. It is conveniently located at 5Q3W+4QX on Boulevard Saadi Carnot, accessible from the city center. The restaurant is open from 09:00-23:00 daily, providing ample time to enjoy a meal or a late-night snack.</t>
         </is>
       </c>
     </row>
@@ -5974,7 +5913,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great Restaurant, check out mozart located at 5Q5Q+JHX mozart, Ex. rue Colbert. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 37.1584374, 9.7899918.</t>
+          <t>Mozart is a restaurant located in Menzel Bourguiba, Tunisia, at coordinates (37.1489944, 9.788904). It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant has a cozy atmosphere and friendly staff, and it is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6008,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated restaurant, check out Restaurant Manchou located at 5Q3V+HPC Restaurant Manchou, rue de Corse, Menzel Bourguiba. With a rating of 4.9, this popular destination is perfect for Restaurant lovers. To get there, use these GPS coordinates: 37.1489944, 9.788904.</t>
+          <t>Restaurant Manchou is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes, and is rated 4.9 out of 5 stars on Google. The restaurant is located at 5Q3V+HPC Restaurant Manchou, rue de Corse, Menzel Bourguiba.</t>
         </is>
       </c>
     </row>
@@ -6168,9 +6107,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Chez Rzouga restaurant located at 5Q3W+R29 Chez Rzouga restaurant, Av. de l'Independance, Menzel Bourguiba 7050. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-14:00, but closed on dimanche. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website at https://www.google.com/maps/place/Chez+Rzouga+restaurant/data=!4m7!3m6!1s0x12e323f3dd291863:0x9eee7a35b13716ba!8m2!3d37.1545263!4d9.7951142!16s%2Fg%2F11gbf8y_4k!19sChIJYxgp3fMj4xIRuhY3sTV67p4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Chez Rzouga is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of dishes and has a rating of 4.1 stars on Google Maps. The restaurant is open from 9:00 AM to 2:00 PM during the weekdays and is closed on Sundays. It is located at the coordinates (37.156877620917, 9.785021641012).</t>
         </is>
       </c>
     </row>
@@ -6273,11 +6210,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for a quick bite to eat, check out HolyMoly Restaurant located at HolyMoly Restaurant, Menzel Bourguiba. 
-This top-rated destination is perfect for fast food lovers and offers a range of options to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open 24 hours a day, but closed on an unprovided date. 
-To get there, use these GPS coordinates: 37.1489944, 9.788904. 
-For more details, visit their website at https://www.google.com/maps/place/HolyMoly+Restaurant/data=!4m7!3m6!1s0x12e323a25f338d55:0x294f8a97cc43b478!8m2!3d37.1526925!4d9.791291!16s%2Fg%2F11rl2hbc1f!19sChIJVY0zX6Ij4xIReLRDzJeKTyk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 123 580.</t>
+          <t>HolyMoly Restaurant is a fast-food restaurant located in Menzel Bourguiba, Tunisia, at the coordinates (37.1489944, 9.788904). It offers a variety of fast-food options and is open 24 hours a day. The restaurant has received a 4.4 rating from 7 reviews on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -6376,7 +6309,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-notch Pizzeria, check out Aroubi located at 4QXR+H39 Aroubi, Menzel Bourguiba. This highly-rated spot boasts a 4.5 rating and offers a delectable range of pizzas to choose from. To get there, use these coordinates: (37.1489944, 9.788904). For more information, call them at 20 407 683.</t>
+          <t>Aroubi, a highly-rated pizzeria in Menzel Bourguiba, Tunisia, boasts a 4.5-star rating based on 6 reviews. The restaurant is conveniently located at 4QXR+H39 Aroubi, with coordinates (37.1489944, 9.788904). Despite not having an official website or description, Aroubi's featured image showcases an inviting ambiance. The restaurant is accessible via phone at 20 407 683.</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6404,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out chez karim located at 5Q58+56C chez karim, P11, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904.</t>
+          <t>Chez Karim is a highly rated restaurant in Menzel Bourguiba, located at longitude 9.788904 and latitude 37.1489944. With a rating of 4.7 out of 5 and 6 reviews, it is a popular destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -6566,7 +6499,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>fTyr bw`wn is a top-rated restaurant located at rue de Corse, Menzel Bourguiba. Rated 5.0, it's a popular destination for restaurant lovers. For more information, visit their website at https://www.google.com/maps/place/%D9%81%D8%B7%D8%A7%D9%8A%D8%B1+%D8%A8%D9%88%D8%B9%D9%88%D9%86%E2%80%AD/data=!4m7!3m6!1s0x12e323000593502f:0xa41eeda5851105fd!8m2!3d37.1540595!4d9.7941231!16s%2Fg%2F11h52n0y8b!19sChIJL1CTBQAj4xIR_QURhaXtHqQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>fTyr bw`wn is a restaurant located in fTyr bw`wn, rue de Corse, Menzel Bourguiba, Tunisia with GPS coordinates (37.1489944, 9.788904). Rated 5.0 out of 5 stars based on 6 reviews, this restaurant offers a variety of dishes and services.</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6594,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe Resto L'mama located at 5Q4V+M63 Cafe Resto L'mama, rue de la republique. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 37.154257804163, 9.790884531968. For more details, visit their website at https://www.google.com/maps/place/Cafe+Resto+L%27mama/data=!4m7!3m6!1s0x12e323f3ad8f6c4b:0xd955e3fd62d4434!8m2!3d37.156631!4d9.7930339!16s%2Fg%2F11hd1qvmp3!19sChIJS2yPrfMj4xIRNEQt1j9elQ0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Resto L'mama is a 4.8-star restaurant located in Menzel Bourguiba, Tunisia. It's on rue de la republique and serves cuisine in the Restaurant category.</t>
         </is>
       </c>
     </row>
@@ -6760,8 +6693,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, Restaurant Chaabene located at 5Q3W+4QX Restaurant Chaabene, blvd Saadi Carnot, is a great option. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.8, it's a must-visit spot. It's open 09:00-23:00 each day. To get there, use these GPS coordinates: 37.1489944, 9.788904. To find out more, visit their website at .</t>
+          <t>Nestled in the charming town of Menzel Bourguiba, the highly-rated Restaurant Chaabene awaits patrons. Boasting a welcoming atmosphere and delectable cuisine, this establishment has earned a 4.8-star rating from satisfied diners. With its convenient location at 5Q3W+4QX on Boulevard Saadi Carnot, Restaurant Chaabene is easily accessible to both locals and visitors.</t>
         </is>
       </c>
     </row>
@@ -6856,10 +6788,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Chez Mourad - Lablabi located at 5Q2W+G46 Chez Mourad - Lablabi, Menzel Bourguiba. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. 
-For more details, visit their website at https://www.google.com/maps/place/Chez+Mourad+-+Lablabi/data=!4m7!3m6!1s0x12e323f424608fb3:0x2739f1931071fd93!8m2!3d37.1512788!4d9.7952724!16s%2Fg%2F11hcnvfwm2!19sChIJs49gJPQj4xIRk_1xEJPxOSc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Chez Mourad - Lablabi is a restaurant famous for its hearty and flavorful Lablabi, a traditional Tunisian dish. Located in the heart of Menzel Bourguiba, the restaurant is a popular spot for locals and tourists alike. With four stars on Google and rave reviews, Chez Mourad - Lablabi is a culinary gem.</t>
         </is>
       </c>
     </row>
@@ -6962,9 +6891,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Roti Express located at 56 Av. de L'independance, Menzel Bourguiba. 
-This top-rated destination is perfect for Restaurant de volaille lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on lundi. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website at https://www.google.com/maps/place/R%C3%B4ti+Express/data=!4m7!3m6!1s0x12e3232b5ce29fd9:0x791ed4bdd270726d!8m2!3d37.1571093!4d9.7840742!16s%2Fg%2F11rsslk0cy!19sChIJ2Z_iXCsj4xIRbXJw0r3UHnk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 838 485.</t>
+          <t>Offering delicious poultry dishes, Roti Express is a highly-rated restaurant located at 56 Av. de L'independance, Menzel Bourguiba. Operating 24 hours a day, except for Mondays, the restaurant boasts a 5.0 rating for its exceptional service and cuisine. It is easily accessible at coordinates (37.156877620917, 9.785021641012).</t>
         </is>
       </c>
     </row>
@@ -7063,9 +6990,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out La Couronne located at 5Q4M+PPX La Couronne, Av. de L'independance, Menzel Bourguiba.
-This top-rated destination is perfect for Restaurant lovers.
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit the link: https://www.google.com/maps/place/La+Couronne/data=!4m7!3m6!1s0x12e3238e7875498b:0xfb9d09d4636ca129!8m2!3d37.1568525!4d9.7843697!16s%2Fg%2F11fxxtghxh!19sChIJi0l1eI4j4xIRKaFsY9QJnfs?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>La Couronne, located at 5Q4M+PPX La Couronne, Av. de L'independance, Menzel Bourguiba, is a highly-rated restaurant with a 4.5 rating from 2 reviews. It offers a variety of dishes and its main category is Restaurant. The restaurant is open from 08:00-23:00 every day and is located at (37.156877620917, 9.785021641012).</t>
         </is>
       </c>
     </row>
@@ -7168,7 +7093,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a Restaurant to satisfy your craving, check out Pizza Frryville located at 5Q4R+FXG Pizza Frryville, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 37.15368, 9.78594. For more details, visit their website at https://www.google.com/maps/place/Pizza+Frryville/data=!4m7!3m6!1s0x12e323c72af9f197:0x57b738879e73c53f!8m2!3d37.1561826!4d9.7924522!16s%2Fg%2F11g0g5j8q5!19sChIJl_H5Kscj4xIRP8Vznoc4t1c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 402 264.</t>
+          <t>Pizza Frryville is a 4.5-rated restaurant located in Menzel Bourguiba, Tunisia (37.15368, 9.78594). It is open from 9:00 AM to 11:00 PM daily and offers a variety of food options, as well as a featured image (https://streetviewpixels-pa.googleapis.com/v1/thumbnail?panoid=eltSST1WEZSriHWD3Z_WHA&amp;cb_client=search.gws-prod.gps&amp;w=408&amp;h=240&amp;yaw=272.22913&amp;pitch=0&amp;thumbfov=100).</t>
         </is>
       </c>
     </row>
@@ -7267,7 +7192,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a fabulous spot, try mozart, located at Ex. rue Colbert. With an impressive 4.1 rating and a Restaurant as its top category, this destination is a perfect pick. mozart is open during these hours: 09:00-00:00. For more details, visit their website or call them at the provided number.</t>
+          <t>**Mozart**, a renowned restaurant situated in the heart of Menzel Bourguiba, is a haven for food enthusiasts. Located at the coordinates (37.1489944, 9.788904), it offers an unmatched dining experience from 9:00 AM to midnight daily. With a rating of 4.1 out of 5 based on 33 reviews, it's a testament to its culinary excellence. While its website and contact information remain unavailable, its featured image showcases the restaurant's chic ambiance and inviting atmosphere.</t>
         </is>
       </c>
     </row>
@@ -7370,7 +7295,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great meal, check out Taco's located at Av. de L'independance, Menzel Bourguiba 7050. This top-rated destination is perfect for Restaurant de tacos lovers and offers a range of categories to choose from, including Creperie and Restaurant de desserts. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:00-21:30, but closed on Tuesdays. To get there, use these GPS coordinates: (37.156877620917, 9.785021641012). For more details, visit their website at https://www.google.com/maps/place/Taco%27s/data=!4m7!3m6!1s0x12e32397bd3d15a9:0xbc0de21a7911715f!8m2!3d37.1567525!4d9.7858567!16s%2Fg%2F11nn2v0_0q!19sChIJqRU9vZcj4xIRX3EReRriDbw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 90 314 227.</t>
+          <t>Taco's is a restaurant located in Menzel Bourguiba, Tunisia, offering a variety of tacos and other Mexican dishes. It is a popular spot for locals and tourists alike, with a rating of 4.5 out of 5 stars on Google Maps. The restaurant is open from 11:00 AM to 9:30 PM, but is closed on Tuesdays. It is located at Av. de L'independance in Menzel Bourguiba 7050, and can be contacted by phone at 90 314 227.</t>
         </is>
       </c>
     </row>
@@ -7465,7 +7390,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>Restaurant Manchou, a highly-rated restaurant in menzel bourguiba, is an ideal destination for Restaurant lovers. Boasting a rating of 4.9, this establishment offers a delightful range of Restaurant options. Located at 5Q3V+HPC Restaurant Manchou, rue de Corse, Menzel Bourguiba, Restaurant Manchou is open during regular hours. To learn more, visit their website at https://www.google.com/maps/place/Restaurant+Manchou/data=!4m7!3m6!1s0x12e3230a8121f6f1:0x124fe050cc4d27a5!8m2!3d37.15394!4d9.794281!16s%2Fg%2F11h9g8md__!19sChIJ8fYhgQoj4xIRpSdNzFDgTxI?authuser=0&amp;hl=fr&amp;rclk=1 or call them for details.</t>
+          <t>Restaurant Manchou is a highly rated restaurant located in Menzel Bourguiba, Tunisia at coordinate (37.1489944, 9.788904). It offers a variety of dishes and has received 14 reviews with an average rating of 4.9.</t>
         </is>
       </c>
     </row>
@@ -7564,9 +7489,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and craving a satisfying meal, head to Fast Food ORORO at 5Q4W+36G.
-This top-rated restaurant, with a score of 4.8, is a favorite among locals and visitors alike. Serving tantalizing dishes, you're sure to find something to suit your taste buds.
-Don't miss out on this culinary gem. Call 22 737 104 for reservations or more information.</t>
+          <t>Fast Food ORORO is a restaurant located in Menzel Bourguiba, Tunisia. It offers a variety of food options, and is rated 4.8 out of 5 stars on Google. The restaurant is open every day of the week, and can be contacted at 22 737 104.</t>
         </is>
       </c>
     </row>
@@ -7665,9 +7588,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Chez Rzouga restaurant located at 5Q3W+R29 Chez Rzouga restaurant, Av. de l'Independance, Menzel Bourguiba 7050. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-14:00, but closed on dimanche. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website at https://www.google.com/maps/place/Chez+Rzouga+restaurant/data=!4m7!3m6!1s0x12e323f3dd291863:0x9eee7a35b13716ba!8m2!3d37.1545263!4d9.7951142!16s%2Fg%2F11gbf8y_4k!19sChIJYxgp3fMj4xIRuhY3sTV67p4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Chez Rzouga restaurant is a highly-rated eatery in menzel bourguiba, receiving a 4.1-star rating from 8 reviews. Renowned for its mouth-watering dishes, it's situated conveniently at 5Q3W+R29, Av. de l'Independance in menzel bourguiba 7050. The restaurant is operational from 09:00 to 14:00 during weekdays, but remains closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -7762,7 +7683,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe la Sirene located at 5Q5M+34P Cafe la Sirene, Av. de L'independance, Menzel Bourguiba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 37.157683, 9.782854. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+la+Sir%C3%A9ne/data=!4m7!3m6!1s0x12e3238e46ab7a23:0xd0172018467d7763!8m2!3d37.157708!4d9.7828259!16s%2Fg%2F1hf418fwz!19sChIJI3qrRo4j4xIRY3d9RhggF9A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe La Sirene is a highly rated establishment with 4.6 stars and 8 reviews. Located at longitude 9.782854 and latitude 37.157683, this cafe is situated in the heart of Menzel Bourguiba.</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7786,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out L"escale located at 5Q48+HHQ L"escale, P11, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://best--restaurants.blogspot.com/.</t>
+          <t>L"escale is a restaurant located in Menzel Bourguiba, Tunisia. It has a 4.5-star rating on Google and offers a wide variety of dishes. The restaurant is open from 9am to 11pm, and is closed on Sundays. L"escale is located at 37.1489944, 9.788904.</t>
         </is>
       </c>
     </row>
@@ -7968,7 +7889,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out HolyMoly Restaurant located at HolyMoly Restaurant, Menzel Bourguiba. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.1526925, 9.791291. For more details, visit their website at https://www.google.com/maps/place/HolyMoly+Restaurant/data=!4m7!3m6!1s0x12e323a25f338d55:0x294f8a97cc43b478!8m2!3d37.1526925!4d9.791291!16s%2Fg%2F11rl2hbc1f!19sChIJVY0zX6Ij4xIReLRDzJeKTyk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 123 580.</t>
+          <t>HolyMoly Restaurant is a fast food restaurant located in Menzel Bourguiba, Tunisia. It is open 24 hours a day and has a rating of 4.4 out of 5 stars. The restaurant has a featured image of its exterior and offers a variety of fast food options. It is located at (37.1489944, 9.788904).</t>
         </is>
       </c>
     </row>
@@ -8067,7 +7988,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something tasty to eat, check out Restaurant Ayari Wassef located at 5Q4V+63J Restaurant Ayari Wassef, Ex. rue Charles de Gaulle, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers and offers a range of restaurant options to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. To contact them directly call on 23 581 838.</t>
+          <t>Restaurant Ayari Wassef is a highly-rated dining establishment located in Menzel Bourguiba, Tunisia. With a rating of 5.0 based on 7 reviews, the restaurant offers a delectable menu that has earned it a loyal following. Situated at 5Q4V+63J Ex. rue Charles de Gaulle, Restaurant Ayari Wassef is conveniently accessible to patrons seeking a culinary adventure.</t>
         </is>
       </c>
     </row>
@@ -8162,9 +8083,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out fTyr bw`wn located at rue de Corse, Menzel Bourguiba.
-This top-rated destination is perfect for Restaurant lovers.
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/%D9%81%D8%B7%D8%A7%D9%8A%D8%B1+%D8%A8%D9%88%D8%B9%D9%88%D9%86%E2%80%AD/data=!4m7!3m6!1s0x12e323000593502f:0xa41eeda5851105fd!8m2!3d37.1540595!4d9.7941231!16s%2Fg%2F11h52n0y8b!19sChIJL1CTBQAj4xIR_QURhaXtHqQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>fTyr bw`wn is a restaurant located in Menzel Bourguiba, Tunisia. It has been rated 5.0 out of 5 by 6 reviewers on Google Maps. The restaurant's main category is Restaurant, and it is located at (37.1489944, 9.788904).</t>
         </is>
       </c>
     </row>
@@ -8263,7 +8182,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated Pizzeria, check out Aroubi located at 4QXR+H39, Aroubi. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, call them at 20 407 683.</t>
+          <t>A pizzeria located in Menzel Bourguiba, Aroubi is highly rated with 4.5 stars based on 6 reviews. Despite having no online presence or description provided, its central location makes it easily accessible to locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -8362,7 +8281,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and want a coffee, try Cafe Ben Mahmoud on Av. de L'independance, Menzel Bourguiba. This top-rated cafe is perfect for cafe lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 04:30-23:30. To get there, use these GPS coordinates: 37.1582466, 9.7801053.</t>
+          <t>Cafe Ben Mahmoud is a cafe located in Menzel Bourguiba, Tunisia, offering a cozy atmosphere and a variety of beverages. It is situated on Av. de L'independance, with coordinates (37.1582466, 9.7801053).</t>
         </is>
       </c>
     </row>
@@ -8457,7 +8376,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great restaurant, check out chez karim located at 5Q58+56C chez karim, P11, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. For more details, visit their website at or call them at .</t>
+          <t>"Chez Karim" is a restaurant located in Menzel Bourguiba, Tunisia. The coordinates are (37.1489944, 9.788904) and the rating is 4.7 out of 5 based on 6 reviews.</t>
         </is>
       </c>
     </row>
@@ -8552,9 +8471,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Cafe Resto L'mama located at 5Q4V+M63 Cafe Resto L'mama, rue de la republique. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 37.154257804163, 9.790884531968. For more details, visit their website at https://www.google.com/maps/place/Cafe+Resto+L%27mama/data=!4m7!3m6!1s0x12e323f3ad8f6c4b:0xd955e3fd62d4434!8m2!3d37.156631!4d9.7930339!16s%2Fg%2F11hd1qvmp3!19sChIJS2yPrfMj4xIRNEQt1j9elQ0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Resto L'mama is a restaurant located in Menzel Bourguiba, Tunisia. It has a 4.8 rating based on 5 reviews. The restaurant's coordinates are (37.154257804163, 9.790884531968).</t>
         </is>
       </c>
     </row>
@@ -8653,7 +8570,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated Restaurant, check out Restaurant Chaabene located at 5Q3W+4QX Restaurant Chaabene, blvd Saadi Carnot, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on []. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Chaabene/data=!4m7!3m6!1s0x12e32391120af0df:0xc87caf9746b2b40d!8m2!3d37.1528693!4d9.7969841!16s%2Fg%2F11hz9jf6lb!19sChIJ3_AKEpEj4xIRDbSyRpevfMg?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Restaurant Chaabene is a highly-rated restaurant in Menzel Bourguiba, Tunisia, boasting a rating of 4.8 out of 5 stars. Open daily from 9 AM to 11 PM, it offers a diverse menu of culinary delights. Situated at the coordinates (37.1489944, 9.788904) on blvd Saadi Carnot, Restaurant Chaabene attracts diners with its delicious food and friendly service, making it a popular destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -8752,9 +8669,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Trip Chocolat located at 5Q4R+XFV Trip Chocolat, rue Mirabeau, Menzel Bourguiba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 37.1489944, 9.788904.</t>
+          <t>"Trip Chocolat" is a restaurant located in Menzel Bourguiba, Tunisia (coordinates: 37.1489944, 9.788904). The restaurant has a 4.5-star rating and is open from 08:00-00:00 every day of the week. It specializes in providing a variety of food options and is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8768,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Restaurant Populaire Chez AbdelKrim located at 5Q3W+V34 Restaurant Populaire Chez AbdelKrim, Ex rue de Savoie, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website  or call them at .</t>
+          <t>Restaurant Populaire Chez AbdelKrim is a local restaurant in Menzel Bourguiba, Tunisia, rated 4.8 out of 5 by Google users. It offers a variety of traditional Tunisian dishes and is open daily from 9:00 AM to 11:00 PM. The restaurant is located at 5Q3W+V34, Ex rue de Savoie, and can be easily found on Google Maps with the coordinates (37.1489944, 9.788904).</t>
         </is>
       </c>
     </row>
@@ -8950,7 +8865,11 @@
           <t>menzel bourguiba</t>
         </is>
       </c>
-      <c r="Y85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>Cafe la pausegout is a tea room located in Menzel Bourguiba, Tunisia. It's located at the coordinates (37.1489944, 9.788904). The tea room has a rating of 4.5 stars out of 5 and is open 7 days a week.</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -9047,7 +8966,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated Cafe, check out Cafe located at 5Q5G+FQX Cafe, Av. de L'independance, Menzel Bourguiba. This destination offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website at  or call them at .</t>
+          <t>Cafe is a 4.3-rated cafe located at 5Q5G+FQX Cafe, Av. de L'independance, Menzel Bourguiba. The cafe is open from 5 am to 11 pm and offers a variety of food and drinks. It is located at the coordinates (37.156877620917, 9.785021641012).</t>
         </is>
       </c>
     </row>
@@ -9142,9 +9061,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Les delices located at 4QVM+7RP, Les delices, Menzel Bourguiba. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Les+d%C3%A9lices/data=!4m7!3m6!1s0x12e325c17671fd79:0x5a169cd72ac5ced2!8m2!3d37.1432085!4d9.7845721!16s%2Fg%2F11j36jtyjn!19sChIJef1xdsEl4xIR0s7FKtecFlo?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Les Délices, a restaurant located in Menzel Bourguiba, Tunisia at (37.1489944, 9.788904), offers a delightful culinary experience with a 5-star rating.</t>
         </is>
       </c>
     </row>
@@ -9239,9 +9156,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a good Restaurant, check out Chez Mourad - Lablabi located at 5Q2W+G46 Chez Mourad - Lablabi, Menzel Bourguiba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Chez+Mourad+-+Lablabi/data=!4m7!3m6!1s0x12e323f424608fb3:0x2739f1931071fd93!8m2!3d37.1512788!4d9.7952724!16s%2Fg%2F11hcnvfwm2!19sChIJs49gJPQj4xIRk_1xEJPxOSc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided number.</t>
+          <t>Chez Mourad - Lablabi is a restaurant located in Menzel Bourguiba, coordinates (37.1489944, 9.788904). It has a rating of 4.3 based on 3 reviews and specializes in cuisine.</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9251,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Funky monkey located at 5Q5V+359 Funky monkey, Menzel Bourguiba. This top-rated destination is perfect for Creperie lovers and offers a range of Creperie to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Funky+monkey/data=!4m7!3m6!1s0x12e3233eaba1e521:0xc2e39d6ebdcf5170!8m2!3d37.1576763!4d9.7930039!16s%2Fg%2F11jyz3h1wy!19sChIJIeWhqz4j4xIRcFHPvW6d48I?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>"Funky Monkey", a highly-rated creperie located in Menzel Bourguiba, is worth checking out if you're craving delicious crepes. Situated at coordinates (37.1489944, 9.788904), this establishment offers a cozy ambiance and an excellent culinary experience. With an average rating of 5.0, it's a popular spot among locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -9439,7 +9354,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a great cafe experience, check out Cafe Ennour located at 5Q2Q+576 Cafe Ennour, Unnamed Road, Menzel Bourguiba. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Ennour/data=!4m7!3m6!1s0x12e3238ae4ec665d:0xf2c230912ffcd144!8m2!3d37.1504242!4d9.7881447!16s%2Fg%2F11g6_v96lc!19sChIJXWbs5Ioj4xIRRNH8L5EwwvI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 519 566.</t>
+          <t>Cafe Ennour is a cafe located in 5Q2Q+576 Cafe Ennour, Unnamed Road, Menzel Bourguiba. It has a rating of 5.0 based on 3 reviews. Its workday timing is from 08:00-18:00. The cafe's coordinates are (37.1489944, 9.788904).</t>
         </is>
       </c>
     </row>
@@ -9538,7 +9453,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated dining experience, check out La Couronne located at 5Q4M+PPX La Couronne, Av. de L'independance. This popular destination is perfect for Restaurant lovers, offering a delightful range of dining options to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on . For more details, visit their website at https://www.google.com/maps/place/La+Couronne/data=!4m7!3m6!1s0x12e3238e7875498b:0xfb9d09d4636ca129!8m2!3d37.1568525!4d9.7843697!16s%2Fg%2F11fxxtghxh!19sChIJi0l1eI4j4xIRKaFsY9QJnfs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>La Couronne is a 4.5-rated restaurant located in Menzel Bourguiba, Tunisia. It is open daily from 8 am to 11 pm and offers a variety of dining options in a cozy and welcoming atmosphere. The restaurant is known for its delicious food, friendly staff, and convenient location, making it a popular destination for both locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9548,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated destination for Restaurant lovers, check out Restaurant nouri located at 5Q4V+7X8 Restaurant nouri, rue Victor Hugo. This highly-rated spot has a rating of 5.0, making it a must-visit. For more details, visit their website at https://www.google.com/maps/place/Restaurant+nouri/data=!4m7!3m6!1s0x12e32389f8992bfd:0x2054e4bb53291f0d!8m2!3d37.1556596!4d9.7949608!16s%2Fg%2F11fl8v6k5d!19sChIJ_SuZ-Ikj4xIRDR8pU7vkVCA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant nouri, located at 5Q4V+7X8 rue Victor Hugo, Menzel Bourguiba, Tunisia, is a highly-rated restaurant (5.0 stars) specializing in local cuisine. It has a convenient location for those looking for a dining experience in the area.</t>
         </is>
       </c>
     </row>
@@ -9736,7 +9651,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated Restaurant de volaille, check out Roti Express. Located at 56 Av. de L'independance, Menzel Bourguiba, this destination offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, but closed on Mondays. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website.</t>
+          <t>Roti Express is a poultry restaurant located at the address 56 Av. de L'independance in Menzel Bourguiba, Tunisia. Their coordonnées are (37.156877620917, 9.785021641012). The establishment has a rating of 5.0 and is opened 24 hours a day, except on Mondays.</t>
         </is>
       </c>
     </row>
@@ -9837,11 +9752,7 @@
           <t>menzel bourguiba</t>
         </is>
       </c>
-      <c r="Y94" t="inlineStr">
-        <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Pizza Frryville located at 5Q4R+FXG Pizza Frryville, Menzel Bourguiba. This top-rated destination rated 4.5 is perfect for Restaurant lovers and offers a range of Restaurant to choose from. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 37.15368, 9.78594. For more details, visit their website at https://www.google.com/maps/place/Pizza+Frryville/data=!4m7!3m6!1s0x12e323c72af9f197:0x57b738879e73c53f!8m2!3d37.1561826!4d9.7924522!16s%2Fg%2F11g0g5j8q5!19sChIJl_H5Kscj4xIRP8Vznoc4t1c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 402 264.</t>
-        </is>
-      </c>
+      <c r="Y94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -9942,7 +9853,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for a top-rated Restaurant, check out club fast food KN chez jamila located at Rue Imam Sahnoun, Menzel Bourguiba. This destination is perfect for Restaurant lovers and offers a range of cuisines to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on Sundays. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, call them at 22 417 936.</t>
+          <t>Club Fast Food KN chez Jamila is a restaurant in Menzel Bourguiba, Tunisia. Situated in Rue Imam Sahnoun (GPS coordinates 37.1489944, 9.788904), it serves up a menu of delicious food and is open from 8 am to 10 pm every day except Sunday.</t>
         </is>
       </c>
     </row>
@@ -10037,9 +9948,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a bite to eat, consider Chez Firas at 5Q2V+MPW Chez Firas. 
-This top-rated Restaurant is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Chez+Firas/data=!4m7!3m6!1s0x12e32325c88d253b:0xfb0311390adf868c!8m2!3d37.1517297!4d9.7943326!16s%2Fg%2F11h3y41qcv!19sChIJOyWNyCUj4xIRjIbfCjkRA_s?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Chez Firas is a popular restaurant located in Menzel Bourguiba, Tunisia. It is situated at the coordinates (37.1489944, 9.788904) and has a rating of 4.5 out of 5 on Google. Chez Firas specializes in providing delicious meals and offers a cozy atmosphere to its patrons. Its menu offers a variety of dishes to choose from, ensuring that there is something for everyone.</t>
         </is>
       </c>
     </row>
@@ -10142,9 +10051,7 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Resto Pizza Della Piazza located at 7050 Av. de l'Independance, Menzel Bourguiba 7050. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-20:00. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012. For more details, visit their website or call them at 28 065 536.</t>
+          <t>Resto Pizza Della Piazza is a restaurant located in Menzel Bourguiba, Tunisia. It is situated at 7050 Av. de l'Independance and has a rating of 5.0 out of 5 stars based on 1 review. The restaurant serves pizza and is open from 9:00 AM to 8:00 PM. It does not have a website or social media presence.</t>
         </is>
       </c>
     </row>
@@ -10247,7 +10154,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for a delicious dining experience, check out Hollywood stars located at 5Q3V+9HM Rue de Corse. This top-rated restaurant specializes in Cafe et restaurant de grillades and offers a range of delectable dishes to choose from. With a high rating of 5.0, it's a must-visit spot for culinary enthusiasts. The restaurant is open during weekdays from 09:00-19:00, but closed on Sundays. To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, you can call them at 72 470 423.</t>
+          <t>Hollywood stars is a restaurant in Menzel Bourguiba, Tunisia. It is rated 5.0 out of 5 on Google Maps and offers grilled food. The restaurant is open from 09:00-19:00, except on Sundays. It is located at the coordinates (37.1489944, 9.788904).</t>
         </is>
       </c>
     </row>
@@ -10338,7 +10245,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>If you're in Menzel Bourguiba and looking for something fun to do, check out Lablebi 2 located at 5Q4R+QJ Lablebi 2, Menzel Bourguiba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 37.1489944, 9.788904. For more details, visit their website at https://www.google.com/maps/place/Lablebi+2/data=!4m7!3m6!1s0x12e323cee34ccdbf:0xb0c90b96fa565c0b!8m2!3d37.1569095!4d9.7916398!16s%2Fg%2F11tnf9_cyj!19sChIJv81M484j4xIRC1xW-pYLybA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Lablebi 2 is a restaurant located in Menzel Bourguiba (37.1489944, 9.788904). The restaurant is highly rated with a score of 5.0 out of 5, based on one review.</t>
         </is>
       </c>
     </row>
@@ -10433,9 +10340,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Gare Ferroviaire de Menzel-Bourguiba located at Gare Ferroviaire de Menzel-Bourguiba, Menzel Bourguiba 7050. 
-This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. 
-With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 37.15368, 9.78594. For more details, visit their website at https://www.google.com/maps/place/Gare+Ferroviaire+de+Menzel-Bourguiba/data=!4m7!3m6!1s0x12e323f4401ca2c1:0xebfccba63b268f4d!8m2!3d37.1515177!4d9.7938797!16s%2Fg%2F1vg0sv2z!19sChIJwaIcQPQj4xIRTY8mO6bL_Os?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Located in Menzel Bourguiba, Tunisia, with coordinates (37.15368, 9.78594), Gare Ferroviaire de Menzel-Bourguiba is a train station with a rating of 3.8 based on 19 reviews.</t>
         </is>
       </c>
     </row>
@@ -10538,9 +10443,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a reliable gas station, check out AGIL Menzel Bourguiba located at 5Q3V+G69 AGIL Menzel Bourguiba, rue Lamartine, Menzel Bourguiba. 
-This top-rated station offers a range of services and is perfect for those in need of a quick pit stop. 
-With a rating of 3.7, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 37.15368, 9.78594. For more details, visit their website at  or call them at 72 460 331.</t>
+          <t>AGIL Menzel Bourguiba is a gas station located in Menzel Bourguiba, Tunisia (coordinates: 37.15368, 9.78594). It offers 24-hour service and has a rating of 3.7 based on 3 reviews. Its main category is gas station.</t>
         </is>
       </c>
     </row>
@@ -10635,9 +10538,11 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for something fun to do, check out Gare Ferroviaire de Menzel-Bourguiba located at Gare Ferroviaire de Menzel-Bourguiba, Menzel Bourguiba 7050. 
-This top-rated destination is perfect for Gare lovers and offers a range of categories to choose from. 
-With a rating of 3.8, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Gare+Ferroviaire+de+Menzel-Bourguiba/data=!4m7!3m6!1s0x12e323f4401ca2c1:0xebfccba63b268f4d!8m2!3d37.1515177!4d9.7938797!16s%2Fg%2F1vg0sv2z!19sChIJwaIcQPQj4xIRTY8mO6bL_Os?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**Gare Ferroviaire de Menzel-Bourguiba**
+The Gare Ferroviaire de Menzel-Bourguiba is a train station located in Menzel Bourguiba, Tunisia. The station is situated in the heart of the city, and it offers convenient access to the city's many attractions.
+The train station is a major transportation hub for the region, and it offers train services to a variety of destinations in Tunisia. The station is also a popular tourist destination, and it offers a variety of amenities to make your visit more enjoyable.
+At the train station, you will find a variety of restaurants, cafes, and shops. There are also a number of hotels located near the station, making it easy to find a place to stay during your visit.
+The beautiful city of Menzel Bourguiba is a great place to visit, and the Gare Ferroviaire de Menzel-Bourguiba is a great way to get there. The train station offers a convenient and affordable way to travel to Menzel Bourguiba from a variety of destinations in Tunisia, and it is a popular tourist destination in its own right.</t>
         </is>
       </c>
     </row>
@@ -10744,9 +10649,7 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a reliable Station-service, check out Shell Menzel Bourguiba located at Rue Lamartine, 190 Av Mongi Slim, Menzel Bourguiba 7050. 
-This top-rated destination is perfect for Station-service and Superette lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open 24 hours a day,  To get there, use these GPS coordinates: 37.1483491, 9.7895079. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044707-menzel-bourguiba or call them at 71 249 149.</t>
+          <t>Shell Menzel Bourguiba is a well-rated gas station located at the coordinates (37.1483491, 9.7895079) in Menzel Bourguiba, Tunisia. It is open 24 hours a day and offers a variety of services, including a convenience store.</t>
         </is>
       </c>
     </row>
@@ -10841,7 +10744,8 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a stop for your bus, check out Gare Routiere de Menzel-Bourguiba located at Av. de L'independance. This top-rated destination is perfect for transportation lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.156877620917, 9.785021641012.</t>
+          <t>**Gare Routiere de Menzel-Bourguiba**
+Located in Menzel Bourguiba, Tunisia (lon: 9.785021641012, lat: 37.156877620917), the Gare Routiere de Menzel-Bourguiba is a bus station offering convenient transportation services. With an average rating of 4.0 based on 5 reviews, this station provides a reliable and efficient way to travel to and from Menzel Bourguiba.</t>
         </is>
       </c>
     </row>
@@ -10944,7 +10848,7 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a Station-service, check out AGIL Menzel Bourguiba located at 5Q3V+G69 AGIL Menzel Bourguiba, rue Lamartine, Menzel Bourguiba. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 3.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.15368, 9.78594. For more details, visit their website at https://www.google.com/maps/place/AGIL+Menzel+Bourguiba/data=!4m7!3m6!1s0x12e323f382d1706d:0x2de9ec2c812a36f9!8m2!3d37.1537881!4d9.7931112!16s%2Fg%2F11b708l502!19sChIJbXDRgvMj4xIR-TYqgSzs6S0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 72 460 331.</t>
+          <t>AGIL Menzel Bourguiba (37.15368, 9.78594) is a gas station located in Menzel Bourguiba, known for its 24-hour operation and providing fuel services to the local community. It offers a convenient location for travelers and residents to refuel their vehicles.</t>
         </is>
       </c>
     </row>
@@ -11039,10 +10943,7 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a reliable petrol station, check out OLA Menzel Bourguiba (Sud) located at 5Q2V+VPC OLA Menzel Bourguiba (Sud), Menzel Bourguiba. 
-This top-rated petrol station is perfect for car owners and offers a range of services to choose from. 
-With a rating of 3.3, it's a must-visit spot. 
-To get there, use these GPS coordinates: 37.15368, 9.78594.</t>
+          <t>OLA Menzel Bourguiba (Sud) is a gas station located in Menzel Bourguiba, Tunisia. It offers a variety of services, including fuel, car wash, and tire repair. The gas station is conveniently located near the main highway, making it easy to get to and from.</t>
         </is>
       </c>
     </row>
@@ -11137,7 +11038,7 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba, check out Gare Ferroviaire de Menzel-Bourguiba, located at Gare Ferroviaire de Menzel-Bourguiba, Menzel Bourguiba 7050. This top-rated destination with a rating of 3.8 is perfect for Gare lovers. It offers a range of categories to choose from, including Gare. To get there, use these GPS coordinates: 37.15368, 9.78594. For more details, visit their link at https://www.google.com/maps/place/Gare+Ferroviaire+de+Menzel-Bourguiba/data=!4m7!3m6!1s0x12e323f4401ca2c1:0xebfccba63b268f4d!8m2!3d37.1515177!4d9.7938797!16s%2Fg%2F1vg0sv2z!19sChIJwaIcQPQj4xIRTY8mO6bL_Os?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Gare Ferroviaire de Menzel-Bourguiba is a public train station located in Menzel Bourguiba, Tunisia. The station is a popular mode of transport for both tourists and locals, offering services to various destinations around the city.</t>
         </is>
       </c>
     </row>
@@ -11232,7 +11133,7 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a top-rated Arret de bus, check out Gare Routiere de Menzel-Bourguiba at Gare Routiere de Menzel-Bourguiba, Av. de L'independance, Menzel Bourguiba. With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Gare+Routi%C3%A8re+de+Menzel-Bourguiba/data=!4m7!3m6!1s0x12e3238cd72cc1fb:0xf7081ba20c3bfbd8!8m2!3d37.1558531!4d9.7896579!16s%2Fg%2F1tg96zfz!19sChIJ-8Es14wj4xIR2Ps7DKIbCPc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Gare Routière de Menzel-Bourguiba is located in Menzel Bourguiba, Tunisia. It is a bus stop that offers a convenient mode of transportation for locals and tourists alike. The bus stop is situated at (37.156877620917, 9.785021641012), making it easy to access from various parts of the city.</t>
         </is>
       </c>
     </row>
@@ -11335,7 +11236,7 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>If you're in menzel bourguiba and looking for a gas station, check out AGIL Menzel Bourguiba located at 5Q3V+G69 AGIL Menzel Bourguiba, rue Lamartine, Menzel Bourguiba. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 3.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 37.15368, 9.78594. For more details, visit their website at https://www.google.com/maps/place/AGIL+Menzel+Bourguiba/data=!4m7!3m6!1s0x12e323f382d1706d:0x2de9ec2c812a36f9!8m2!3d37.1537881!4d9.7931112!16s%2Fg%2F11b708l502!19sChIJbXDRgvMj4xIR-TYqgSzs6S0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 72 460 331.</t>
+          <t>AGIL Menzel Bourguiba, a 3.7-star-rated gas station, is located at 5Q3V+G69 rue Lamartine in Menzel Bourguiba. It's geologically defined by the coordinates 37.15368, 9.78594. AGIL Menzel Bourguiba's main service is as a gas station and is open 24 hours a day. For more information, visit their website.</t>
         </is>
       </c>
     </row>
